--- a/src/models/baselines/RF/results/real-world/Kaggle/metrics.xlsx
+++ b/src/models/baselines/RF/results/real-world/Kaggle/metrics.xlsx
@@ -462,7 +462,7 @@
         <v>0.458128078817734</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6441539578794481</v>
+        <v>0.623814072339826</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4532019704433498</v>
+        <v>0.4433497536945813</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4532019704433497</v>
+        <v>0.4433497536945813</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6394824624155908</v>
+        <v>0.6312687651069273</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4679802955665024</v>
+        <v>0.4876847290640394</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4679802955665024</v>
+        <v>0.4876847290640394</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6623784671414171</v>
+        <v>0.6521014209995774</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4729064039408867</v>
+        <v>0.4679802955665024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4729064039408867</v>
+        <v>0.4679802955665024</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6166048840763503</v>
+        <v>0.590255422235229</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.458128078817734</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.458128078817734</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6385927118221529</v>
+        <v>0.623596884856762</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4187192118226601</v>
+        <v>0.477832512315271</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4187192118226601</v>
+        <v>0.477832512315271</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5996206332173555</v>
+        <v>0.6422728405900779</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4926108374384237</v>
+        <v>0.5123152709359606</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4926108374384237</v>
+        <v>0.5123152709359606</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6804821209854865</v>
+        <v>0.6772474772108955</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.4876847290640394</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.4876847290640394</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6441737391474002</v>
+        <v>0.6569044754441301</v>
       </c>
     </row>
     <row r="10">
@@ -574,7 +574,7 @@
         <v>0.458128078817734</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6227120118362436</v>
+        <v>0.6312008855504612</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4039408866995074</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4039408866995074</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6159503408881518</v>
+        <v>0.6431823724514681</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4556650246305418</v>
+        <v>0.4699507389162562</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4556650246305418</v>
+        <v>0.4699507389162562</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6364151329409597</v>
+        <v>0.6371844616785355</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02720532270243168</v>
+        <v>0.0213085427881883</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02720532270243167</v>
+        <v>0.0213085427881883</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02381198183797699</v>
+        <v>0.02336861454712747</v>
       </c>
     </row>
   </sheetData>
